--- a/Chemical engineering applications/Chemical reactions engineering/Monolite/Expdata.xlsx
+++ b/Chemical engineering applications/Chemical reactions engineering/Monolite/Expdata.xlsx
@@ -713,6 +713,45 @@
                 <c:pt idx="27">
                   <c:v>2.2200000000000001E-2</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -944,6 +983,72 @@
                 <c:pt idx="18">
                   <c:v>1.8499999999999999E-2</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1163,6 +1268,84 @@
                 <c:pt idx="14">
                   <c:v>1.6899999999999998E-2</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1182,11 +1365,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="367444368"/>
-        <c:axId val="367444760"/>
+        <c:axId val="357541768"/>
+        <c:axId val="357542160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="367444368"/>
+        <c:axId val="357541768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1229,7 +1412,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367444760"/>
+        <c:crossAx val="357542160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1237,7 +1420,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="367444760"/>
+        <c:axId val="357542160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1288,7 +1471,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367444368"/>
+        <c:crossAx val="357541768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1945,7 +2128,7 @@
         <xdr:cNvPr id="3" name="Grafico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B9CCFF0B-1C0B-4E99-A059-D5FFAFECC1C9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9CCFF0B-1C0B-4E99-A059-D5FFAFECC1C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2231,8 +2414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E28" sqref="E24:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2574,6 +2757,9 @@
       <c r="D24">
         <v>2.4E-2</v>
       </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -2588,6 +2774,9 @@
       <c r="D25">
         <v>2.4E-2</v>
       </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -2602,6 +2791,9 @@
       <c r="D26">
         <v>2.4E-2</v>
       </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -2616,6 +2808,9 @@
       <c r="D27">
         <v>1.8499999999999999E-2</v>
       </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -2627,6 +2822,12 @@
       <c r="C28">
         <v>3.3000000000000002E-2</v>
       </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -2638,6 +2839,12 @@
       <c r="C29">
         <v>3.3000000000000002E-2</v>
       </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -2649,6 +2856,12 @@
       <c r="C30">
         <v>3.3000000000000002E-2</v>
       </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -2660,6 +2873,12 @@
       <c r="C31">
         <v>2.76E-2</v>
       </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -2671,8 +2890,14 @@
       <c r="C32">
         <v>2.76E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>120</v>
       </c>
@@ -2682,8 +2907,14 @@
       <c r="C33">
         <v>2.76E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>125</v>
       </c>
@@ -2693,8 +2924,14 @@
       <c r="C34">
         <v>2.76E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>130</v>
       </c>
@@ -2704,8 +2941,14 @@
       <c r="C35">
         <v>2.76E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>135</v>
       </c>
@@ -2715,109 +2958,232 @@
       <c r="C36">
         <v>2.2200000000000001E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>140</v>
       </c>
       <c r="B37">
         <v>3.3799999999999997E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>145</v>
       </c>
       <c r="B38">
         <v>3.3799999999999997E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>150</v>
       </c>
       <c r="B39">
         <v>3.3799999999999997E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>155</v>
       </c>
       <c r="B40">
         <v>3.3799999999999997E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>160</v>
       </c>
       <c r="B41">
         <v>2.7900000000000001E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>165</v>
       </c>
       <c r="B42">
         <v>2.7900000000000001E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>170</v>
       </c>
       <c r="B43">
         <v>2.7900000000000001E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>175</v>
       </c>
       <c r="B44">
         <v>2.7900000000000001E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>180</v>
       </c>
       <c r="B45">
         <v>2.7900000000000001E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>185</v>
       </c>
       <c r="B46">
         <v>2.7900000000000001E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>190</v>
       </c>
       <c r="B47">
         <v>2.7900000000000001E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>195</v>
       </c>
       <c r="B48">
         <v>2.7900000000000001E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>200</v>
       </c>
       <c r="B49">
         <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
